--- a/s36/fil/rtab.xlsx
+++ b/s36/fil/rtab.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="15132" windowHeight="9300"/>
   </bookViews>
   <sheets>
-    <sheet name="Files" sheetId="4" r:id="rId1"/>
-    <sheet name="Dirs" sheetId="5" r:id="rId2"/>
+    <sheet name="files" sheetId="4" r:id="rId1"/>
+    <sheet name="dirs" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -17,21 +17,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Dirn</t>
   </si>
   <si>
-    <t>IdParent</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>filn</t>
   </si>
   <si>
@@ -42,6 +33,15 @@
   </si>
   <si>
     <t>mediaid</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Dirid</t>
+  </si>
+  <si>
+    <t>Dir0</t>
   </si>
 </sst>
 </file>
@@ -444,26 +444,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -481,23 +482,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
